--- a/11-30-25 to 12-06-25 Madison Schedule.xlsx
+++ b/11-30-25 to 12-06-25 Madison Schedule.xlsx
@@ -1288,7 +1288,7 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>Elijah</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="O19" t="inlineStr"/>
@@ -1363,7 +1363,7 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="O20" t="inlineStr"/>
@@ -1435,7 +1435,7 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="O21" t="inlineStr"/>
@@ -1522,10 +1522,15 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Joseph</t>
-        </is>
-      </c>
-      <c r="O22" t="inlineStr"/>
+          <t>Justin Lee</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Silver Van</t>
+        </is>
+      </c>
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr">
         <is>
@@ -1608,13 +1613,12 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Driver, 1/2
-Silver Van</t>
+          <t>Trainer</t>
         </is>
       </c>
       <c r="P23" t="inlineStr"/>
@@ -1696,12 +1700,13 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Trainer</t>
+          <t>Driver, 1/2
+Gray Van</t>
         </is>
       </c>
       <c r="P24" t="inlineStr"/>
@@ -1760,7 +1765,7 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -1812,13 +1817,12 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Driver, 1/2
-Gray Van</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P26" t="inlineStr"/>
@@ -1872,7 +1876,7 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -1935,7 +1939,7 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -1999,7 +2003,7 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Pamela</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -2062,12 +2066,13 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>Pamela</t>
+          <t>Sophia</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+work w/ Lashaun</t>
         </is>
       </c>
       <c r="P30" t="inlineStr"/>
@@ -2125,13 +2130,13 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>Sophia</t>
+          <t>Zakiyah</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
           <t>@ Store,
-work w/ Lashaun</t>
+work w/ Michael</t>
         </is>
       </c>
       <c r="P31" t="inlineStr"/>
@@ -2182,22 +2187,9 @@
       </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>18)</t>
-        </is>
-      </c>
-      <c r="N32" t="inlineStr">
-        <is>
-          <t>Zakiyah</t>
-        </is>
-      </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>@ Store,
-work w/ Michael</t>
-        </is>
-      </c>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
+      <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr">
         <is>

--- a/11-30-25 to 12-06-25 Madison Schedule.xlsx
+++ b/11-30-25 to 12-06-25 Madison Schedule.xlsx
@@ -1411,10 +1411,15 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Josh S</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr"/>
+          <t>Justin Lee</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Gray Van</t>
+        </is>
+      </c>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
         <is>
@@ -1488,7 +1493,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1580,13 +1585,12 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Driver, 1/2
-Gray Van</t>
+          <t>@ Store, After c-store</t>
         </is>
       </c>
       <c r="H23" t="inlineStr"/>
@@ -1661,21 +1665,9 @@
       <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>10)</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>@ Store, After c-store</t>
-        </is>
-      </c>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
         <is>
@@ -1803,7 +1795,11 @@
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
@@ -1856,7 +1852,7 @@
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="G27" t="inlineStr"/>
@@ -1919,7 +1915,7 @@
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>SULLIVAN'S SAVANNA STATION #276</t>
         </is>
       </c>
       <c r="G28" t="inlineStr"/>
@@ -1983,7 +1979,7 @@
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr">
         <is>
-          <t>SULLIVAN'S SAVANNA STATION #276</t>
+          <t>1230 CHICAGO AVE</t>
         </is>
       </c>
       <c r="G29" t="inlineStr"/>
@@ -2046,7 +2042,7 @@
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr">
         <is>
-          <t>1230 CHICAGO AVE</t>
+          <t>https://goo.gl/maps/jvzQV9VdYyX6QkhM8</t>
         </is>
       </c>
       <c r="G30" t="inlineStr"/>
@@ -2110,7 +2106,7 @@
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/jvzQV9VdYyX6QkhM8</t>
+          <t>*IL Meet is 4:30 am at IL Office</t>
         </is>
       </c>
       <c r="G31" t="inlineStr"/>
@@ -2172,11 +2168,7 @@
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>*IL Meet is 4:30 am at IL Office</t>
-        </is>
-      </c>
+      <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
@@ -2223,9 +2215,22 @@
       <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr"/>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Driver,
+Camry 3, Equip</t>
+        </is>
+      </c>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -2252,20 +2257,15 @@
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>Driver,
-Camry 3, Equip</t>
-        </is>
-      </c>
+          <t>Eva</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr">
         <is>
@@ -2315,16 +2315,8 @@
       <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Eva</t>
-        </is>
-      </c>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr">
@@ -2428,8 +2420,16 @@
       <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>7:00 AM START</t>
+        </is>
+      </c>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr">
@@ -2472,14 +2472,10 @@
       <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
+      <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="G38" t="inlineStr"/>
@@ -2526,7 +2522,7 @@
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>PIGGLY WIGGLY #311, WAUPACA</t>
         </is>
       </c>
       <c r="G39" t="inlineStr"/>
@@ -2577,7 +2573,7 @@
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr">
         <is>
-          <t>PIGGLY WIGGLY #311, WAUPACA</t>
+          <t>810 W FULTON</t>
         </is>
       </c>
       <c r="G40" t="inlineStr"/>
@@ -2628,7 +2624,7 @@
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr">
         <is>
-          <t>810 W FULTON</t>
+          <t>https://goo.gl/maps/vay5nnowsSN2</t>
         </is>
       </c>
       <c r="G41" t="inlineStr"/>
@@ -2677,11 +2673,7 @@
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/vay5nnowsSN2</t>
-        </is>
-      </c>
+      <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
@@ -2724,7 +2716,11 @@
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr"/>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>FROZEN AND DAIRY ARE TYPICALLY COUNTED LAST</t>
+        </is>
+      </c>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
@@ -2781,11 +2777,7 @@
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>FROZEN AND DAIRY ARE TYPICALLY COUNTED LAST</t>
-        </is>
-      </c>
+      <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
@@ -2836,9 +2828,21 @@
       <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr"/>
-      <c r="G45" t="inlineStr"/>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Jerry S</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
         <is>
@@ -2885,17 +2889,17 @@
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Jerry S</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>@ Store, Equip</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="H46" t="inlineStr"/>
@@ -2956,12 +2960,12 @@
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t xml:space="preserve">Dan </t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -3028,12 +3032,12 @@
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dan </t>
+          <t>Katie</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -3099,12 +3103,12 @@
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Katie</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -3158,12 +3162,12 @@
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Madison</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -3219,12 +3223,12 @@
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Madison</t>
+          <t>Michelle</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -3258,12 +3262,12 @@
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Michelle</t>
+          <t>Nagui</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -3295,21 +3299,9 @@
       <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>8)</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>Nagui</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr">
@@ -3370,7 +3362,11 @@
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr"/>
-      <c r="F55" t="inlineStr"/>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
@@ -3403,7 +3399,7 @@
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="G56" t="inlineStr"/>
@@ -3438,7 +3434,7 @@
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>PIGGLY WIGGLY #355, RACINE</t>
         </is>
       </c>
       <c r="G57" t="inlineStr"/>
@@ -3473,7 +3469,7 @@
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr">
         <is>
-          <t>PIGGLY WIGGLY #355, RACINE</t>
+          <t>3900 ERIE ST</t>
         </is>
       </c>
       <c r="G58" t="inlineStr"/>
@@ -3508,7 +3504,7 @@
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr">
         <is>
-          <t>3900 ERIE ST</t>
+          <t>https://goo.gl/maps/pSDNmBRxXrQ2</t>
         </is>
       </c>
       <c r="G59" t="inlineStr"/>
@@ -3539,7 +3535,7 @@
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/pSDNmBRxXrQ2</t>
+          <t>*IL Meet is 4:15 am at IL Office</t>
         </is>
       </c>
       <c r="G60" t="inlineStr"/>
@@ -3576,11 +3572,7 @@
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr"/>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>*IL Meet is 4:15 am at IL Office</t>
-        </is>
-      </c>
+      <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr">
@@ -3614,9 +3606,21 @@
       <c r="B62" t="inlineStr"/>
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr"/>
-      <c r="E62" t="inlineStr"/>
-      <c r="F62" t="inlineStr"/>
-      <c r="G62" t="inlineStr"/>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr">
         <is>
@@ -3651,19 +3655,15 @@
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+          <t>Elijah</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr">
         <is>
@@ -3698,12 +3698,12 @@
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Elijah</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="G64" t="inlineStr"/>
@@ -3741,15 +3741,20 @@
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Joseph</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr"/>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Driver,
+Optima</t>
+        </is>
+      </c>
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr">
         <is>
@@ -3784,18 +3789,17 @@
       <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Driver,
-Optima</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="H66" t="inlineStr"/>
@@ -3832,12 +3836,12 @@
       <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -3879,12 +3883,12 @@
       <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -3924,21 +3928,9 @@
       <c r="B69" t="inlineStr"/>
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr"/>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>7)</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Sonia</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr">
         <is>

--- a/11-30-25 to 12-06-25 Madison Schedule.xlsx
+++ b/11-30-25 to 12-06-25 Madison Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y89"/>
+  <dimension ref="A1:Y90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4429,7 +4429,7 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Madison</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="K83" t="inlineStr"/>
@@ -4464,7 +4464,7 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Madison</t>
         </is>
       </c>
       <c r="K84" t="inlineStr"/>
@@ -4499,7 +4499,7 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Michelle</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="K85" t="inlineStr"/>
@@ -4534,7 +4534,7 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Michelle</t>
         </is>
       </c>
       <c r="K86" t="inlineStr"/>
@@ -4569,7 +4569,7 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="K87" t="inlineStr"/>
@@ -4604,7 +4604,7 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="K88" t="inlineStr"/>
@@ -4639,7 +4639,7 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>Sue</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="K89" t="inlineStr"/>
@@ -4658,6 +4658,41 @@
       <c r="X89" t="inlineStr"/>
       <c r="Y89" t="inlineStr"/>
     </row>
+    <row r="90">
+      <c r="A90" t="inlineStr"/>
+      <c r="B90" t="inlineStr"/>
+      <c r="C90" t="inlineStr"/>
+      <c r="D90" t="inlineStr"/>
+      <c r="E90" t="inlineStr"/>
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="inlineStr"/>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>31)</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>Sue</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="inlineStr"/>
+      <c r="O90" t="inlineStr"/>
+      <c r="P90" t="inlineStr"/>
+      <c r="Q90" t="inlineStr"/>
+      <c r="R90" t="inlineStr"/>
+      <c r="S90" t="inlineStr"/>
+      <c r="T90" t="inlineStr"/>
+      <c r="U90" t="inlineStr"/>
+      <c r="V90" t="inlineStr"/>
+      <c r="W90" t="inlineStr"/>
+      <c r="X90" t="inlineStr"/>
+      <c r="Y90" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/11-30-25 to 12-06-25 Madison Schedule.xlsx
+++ b/11-30-25 to 12-06-25 Madison Schedule.xlsx
@@ -2015,7 +2015,7 @@
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
@@ -2079,7 +2079,7 @@
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
@@ -2143,12 +2143,13 @@
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Zakiyah</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+work w/ Leyna</t>
         </is>
       </c>
       <c r="T31" t="inlineStr"/>
@@ -2183,22 +2184,9 @@
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr">
-        <is>
-          <t>17)</t>
-        </is>
-      </c>
-      <c r="R32" t="inlineStr">
-        <is>
-          <t>Zakiyah</t>
-        </is>
-      </c>
-      <c r="S32" t="inlineStr">
-        <is>
-          <t>@ Store,
-work w/ Leyna</t>
-        </is>
-      </c>
+      <c r="Q32" t="inlineStr"/>
+      <c r="R32" t="inlineStr"/>
+      <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr"/>
       <c r="V32" t="inlineStr">
@@ -2288,7 +2276,11 @@
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>6:30 AM START</t>
+        </is>
+      </c>
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr">
@@ -2338,7 +2330,7 @@
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="S35" t="inlineStr"/>
@@ -2396,7 +2388,7 @@
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>KELLEY #77, ABERG AVE MOBIL, MADISON</t>
         </is>
       </c>
       <c r="S36" t="inlineStr"/>
@@ -2456,7 +2448,7 @@
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr">
         <is>
-          <t>KELLEY #77, ABERG AVE MOBIL, MADISON</t>
+          <t>2601 SHOPKO DR</t>
         </is>
       </c>
       <c r="S37" t="inlineStr"/>
@@ -2503,7 +2495,7 @@
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr">
         <is>
-          <t>2601 SHOPKO DR</t>
+          <t>https://goo.gl/maps/wunNn18A34r</t>
         </is>
       </c>
       <c r="S38" t="inlineStr"/>
@@ -2550,7 +2542,7 @@
       <c r="Q39" t="inlineStr"/>
       <c r="R39" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/wunNn18A34r</t>
+          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags  </t>
         </is>
       </c>
       <c r="S39" t="inlineStr"/>
@@ -2601,7 +2593,7 @@
       <c r="Q40" t="inlineStr"/>
       <c r="R40" t="inlineStr">
         <is>
-          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags  </t>
+          <t>*IL Meet is 5:15 am at IL office</t>
         </is>
       </c>
       <c r="S40" t="inlineStr"/>
@@ -2650,11 +2642,7 @@
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr">
-        <is>
-          <t>*IL Meet is 5:15 am at IL office</t>
-        </is>
-      </c>
+      <c r="R41" t="inlineStr"/>
       <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr"/>
@@ -2696,9 +2684,22 @@
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="inlineStr"/>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>@ Store,
+Camry 3, Equip</t>
+        </is>
+      </c>
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr"/>
       <c r="V42" t="inlineStr">
@@ -2746,20 +2747,15 @@
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="S43" t="inlineStr">
-        <is>
-          <t>@ Store,
-Camry 3, Equip</t>
-        </is>
-      </c>
+          <t>Angela</t>
+        </is>
+      </c>
+      <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr"/>
       <c r="V43" t="inlineStr">
@@ -2803,12 +2799,12 @@
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="S44" t="inlineStr"/>
@@ -2866,12 +2862,12 @@
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="S45" t="inlineStr"/>
@@ -2925,15 +2921,20 @@
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Eva</t>
-        </is>
-      </c>
-      <c r="S46" t="inlineStr"/>
+          <t>Michael N</t>
+        </is>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Camry</t>
+        </is>
+      </c>
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr">
         <is>
@@ -2996,18 +2997,17 @@
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>Driver,
-Red Camry</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T47" t="inlineStr"/>
@@ -3066,21 +3066,9 @@
       <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="R48" t="inlineStr">
-        <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="S48" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q48" t="inlineStr"/>
+      <c r="R48" t="inlineStr"/>
+      <c r="S48" t="inlineStr"/>
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr">
         <is>

--- a/11-30-25 to 12-06-25 Madison Schedule.xlsx
+++ b/11-30-25 to 12-06-25 Madison Schedule.xlsx
@@ -1669,21 +1669,9 @@
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>9)</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>Savannah</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
         <is>

--- a/11-30-25 to 12-06-25 Madison Schedule.xlsx
+++ b/11-30-25 to 12-06-25 Madison Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y90"/>
+  <dimension ref="A1:Y89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4510,7 +4510,7 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Michelle</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="K86" t="inlineStr"/>
@@ -4545,7 +4545,7 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="K87" t="inlineStr"/>
@@ -4580,7 +4580,7 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="K88" t="inlineStr"/>
@@ -4615,7 +4615,7 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Sue</t>
         </is>
       </c>
       <c r="K89" t="inlineStr"/>
@@ -4634,41 +4634,6 @@
       <c r="X89" t="inlineStr"/>
       <c r="Y89" t="inlineStr"/>
     </row>
-    <row r="90">
-      <c r="A90" t="inlineStr"/>
-      <c r="B90" t="inlineStr"/>
-      <c r="C90" t="inlineStr"/>
-      <c r="D90" t="inlineStr"/>
-      <c r="E90" t="inlineStr"/>
-      <c r="F90" t="inlineStr"/>
-      <c r="G90" t="inlineStr"/>
-      <c r="H90" t="inlineStr"/>
-      <c r="I90" t="inlineStr">
-        <is>
-          <t>31)</t>
-        </is>
-      </c>
-      <c r="J90" t="inlineStr">
-        <is>
-          <t>Sue</t>
-        </is>
-      </c>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr"/>
-      <c r="N90" t="inlineStr"/>
-      <c r="O90" t="inlineStr"/>
-      <c r="P90" t="inlineStr"/>
-      <c r="Q90" t="inlineStr"/>
-      <c r="R90" t="inlineStr"/>
-      <c r="S90" t="inlineStr"/>
-      <c r="T90" t="inlineStr"/>
-      <c r="U90" t="inlineStr"/>
-      <c r="V90" t="inlineStr"/>
-      <c r="W90" t="inlineStr"/>
-      <c r="X90" t="inlineStr"/>
-      <c r="Y90" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/11-30-25 to 12-06-25 Madison Schedule.xlsx
+++ b/11-30-25 to 12-06-25 Madison Schedule.xlsx
@@ -1686,7 +1686,7 @@
       <c r="O24" t="inlineStr">
         <is>
           <t>Driver, 1/2
-Gray Van</t>
+Optima</t>
         </is>
       </c>
       <c r="P24" t="inlineStr"/>
@@ -1751,7 +1751,7 @@
       <c r="O25" t="inlineStr">
         <is>
           <t>Driver, 1/2
-Gray Van</t>
+Optima</t>
         </is>
       </c>
       <c r="P25" t="inlineStr"/>
